--- a/Pentest roadmap/roadmap.xlsx
+++ b/Pentest roadmap/roadmap.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\multi\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\multi\Documents\GitHub\Resume\Pentest roadmap\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6082E4F-86A2-4A90-9892-9BCD55A70D7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{415A6945-D712-4220-9423-38A9349B5CA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -578,20 +578,20 @@
   <dimension ref="A1:N29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="40.5703125" customWidth="1"/>
+    <col min="1" max="1" width="48" customWidth="1"/>
     <col min="2" max="2" width="12.42578125" customWidth="1"/>
     <col min="4" max="4" width="44.85546875" customWidth="1"/>
     <col min="5" max="5" width="12" customWidth="1"/>
-    <col min="7" max="7" width="54.85546875" customWidth="1"/>
+    <col min="7" max="7" width="57.140625" customWidth="1"/>
     <col min="8" max="8" width="12" customWidth="1"/>
     <col min="10" max="10" width="32.28515625" customWidth="1"/>
     <col min="11" max="11" width="12.28515625" customWidth="1"/>
-    <col min="13" max="13" width="45" customWidth="1"/>
+    <col min="13" max="13" width="47.28515625" customWidth="1"/>
     <col min="14" max="14" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -643,19 +643,19 @@
         <v>31</v>
       </c>
       <c r="E4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>40</v>
       </c>
       <c r="H4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>47</v>
       </c>
       <c r="K4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M4" s="1" t="s">
         <v>57</v>
@@ -669,25 +669,25 @@
         <v>3</v>
       </c>
       <c r="B5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>32</v>
       </c>
       <c r="E5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>41</v>
       </c>
       <c r="H5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>48</v>
       </c>
       <c r="K5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M5" s="1" t="s">
         <v>58</v>
@@ -701,25 +701,25 @@
         <v>4</v>
       </c>
       <c r="B6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>33</v>
       </c>
       <c r="E6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>42</v>
       </c>
       <c r="H6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>49</v>
       </c>
       <c r="K6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M6" s="1" t="s">
         <v>59</v>
@@ -733,19 +733,19 @@
         <v>5</v>
       </c>
       <c r="B7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>34</v>
       </c>
       <c r="E7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>43</v>
       </c>
       <c r="H7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>50</v>
@@ -765,13 +765,13 @@
         <v>6</v>
       </c>
       <c r="B8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>35</v>
       </c>
       <c r="E8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>44</v>
@@ -797,7 +797,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>36</v>
@@ -829,13 +829,13 @@
         <v>8</v>
       </c>
       <c r="B10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>37</v>
       </c>
       <c r="E10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>53</v>
@@ -855,19 +855,19 @@
         <v>9</v>
       </c>
       <c r="B11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>38</v>
       </c>
       <c r="E11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>54</v>
       </c>
       <c r="K11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M11" s="1" t="s">
         <v>64</v>
@@ -881,7 +881,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>55</v>
@@ -901,7 +901,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
@@ -909,7 +909,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
@@ -965,7 +965,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -973,7 +973,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -981,7 +981,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -989,7 +989,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -1005,7 +1005,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -1021,7 +1021,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
